--- a/data/fall2425_exams.xlsx
+++ b/data/fall2425_exams.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berkercin\Desktop\Projects\Scheduling\Campus-Scheduling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D42898-F20D-4C79-9C4A-36346873229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9DE24-3F13-4869-B546-39C19A662851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23.12-27.12 (1. HAFTA)" sheetId="1" r:id="rId1"/>
     <sheet name="30.12-03.01 (2. HAFTA)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'23.12-27.12 (1. HAFTA)'!$A$1:$AK$45</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -661,18 +677,15 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,13 +696,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,7 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,11 +944,11 @@
   </sheetPr>
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1067,74 +1083,74 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="29" t="s">
         <v>42</v>
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X2" s="12"/>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AG2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="31" t="s">
+      <c r="AH2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="31" t="s">
+      <c r="AI2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="31" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="11" t="s">
@@ -1142,7 +1158,7 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1201,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
@@ -1193,70 +1209,70 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="12"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>42</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AA4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE4" s="12"/>
@@ -1270,7 +1286,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1313,7 +1329,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
@@ -1321,16 +1337,16 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -1338,47 +1354,47 @@
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="35" t="s">
         <v>40</v>
       </c>
       <c r="Q6" s="12"/>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="30" t="s">
+      <c r="U6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="30" t="s">
+      <c r="V6" s="27" t="s">
         <v>43</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="30" t="s">
+      <c r="Y6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AA6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="30" t="s">
+      <c r="AB6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC6" s="31" t="s">
+      <c r="AC6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD6" s="31" t="s">
+      <c r="AD6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE6" s="12"/>
@@ -1392,7 +1408,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
@@ -1435,7 +1451,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
@@ -1447,52 +1463,52 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="29" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="12"/>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="30" t="s">
+      <c r="U8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="30" t="s">
+      <c r="V8" s="27" t="s">
         <v>42</v>
       </c>
       <c r="W8" s="12"/>
-      <c r="X8" s="32" t="s">
+      <c r="X8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y8" s="30" t="s">
+      <c r="Y8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="32" t="s">
+      <c r="Z8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA8" s="32" t="s">
+      <c r="AA8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB8" s="30" t="s">
+      <c r="AB8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="31" t="s">
+      <c r="AC8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="31" t="s">
+      <c r="AD8" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE8" s="12"/>
@@ -1506,7 +1522,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
         <v>54</v>
       </c>
@@ -1592,7 +1608,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1600,11 +1616,11 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="2"/>
@@ -1614,38 +1630,38 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="35" t="s">
         <v>42</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="27" t="s">
+      <c r="U11" s="35" t="s">
         <v>42</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="32" t="s">
+      <c r="X11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y11" s="32" t="s">
+      <c r="Y11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA11" s="32" t="s">
+      <c r="AA11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB11" s="32" t="s">
+      <c r="AB11" s="31" t="s">
         <v>42</v>
       </c>
       <c r="AC11" s="2"/>
@@ -1661,15 +1677,15 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="35"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="35"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1704,7 +1720,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1716,49 +1732,49 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="31" t="s">
         <v>38</v>
       </c>
       <c r="W13" s="2"/>
-      <c r="X13" s="32" t="s">
+      <c r="X13" s="31" t="s">
         <v>38</v>
       </c>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="31" t="s">
         <v>42</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="30" t="s">
+      <c r="AG13" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AH13" s="2"/>
@@ -1769,7 +1785,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1812,74 +1828,74 @@
       </c>
     </row>
     <row r="15" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="29" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="29" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="29" t="s">
         <v>42</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="29" t="s">
+      <c r="W15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="30" t="s">
+      <c r="Y15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA15" s="32" t="s">
+      <c r="AA15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB15" s="30" t="s">
+      <c r="AB15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC15" s="31" t="s">
+      <c r="AC15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD15" s="31" t="s">
+      <c r="AD15" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE15" s="2"/>
@@ -1893,7 +1909,7 @@
       </c>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1936,7 +1952,7 @@
       </c>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1944,55 +1960,55 @@
         <v>39</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="29" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="29" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="33" t="s">
         <v>47</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="27" t="s">
+      <c r="P17" s="35" t="s">
         <v>40</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="31" t="s">
+      <c r="T17" s="29" t="s">
         <v>42</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="32" t="s">
+      <c r="V17" s="31" t="s">
         <v>38</v>
       </c>
       <c r="W17" s="2"/>
-      <c r="X17" s="32" t="s">
+      <c r="X17" s="31" t="s">
         <v>38</v>
       </c>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA17" s="32" t="s">
+      <c r="AA17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB17" s="30" t="s">
+      <c r="AB17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC17" s="31" t="s">
+      <c r="AC17" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AD17" s="2"/>
@@ -2007,7 +2023,7 @@
       </c>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2093,7 +2109,7 @@
       </c>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2101,68 +2117,68 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="29" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="29" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="27" t="s">
+      <c r="P20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="Q20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="29" t="s">
+      <c r="S20" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T20" s="12"/>
-      <c r="U20" s="32" t="s">
+      <c r="U20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V20" s="32" t="s">
+      <c r="V20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="29" t="s">
+      <c r="W20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X20" s="32" t="s">
+      <c r="X20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y20" s="30" t="s">
+      <c r="Y20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="32" t="s">
+      <c r="Z20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA20" s="32" t="s">
+      <c r="AA20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB20" s="32" t="s">
+      <c r="AB20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AC20" s="31" t="s">
+      <c r="AC20" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD20" s="31" t="s">
+      <c r="AD20" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE20" s="12"/>
@@ -2176,7 +2192,7 @@
       </c>
     </row>
     <row r="21" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="12" t="s">
         <v>44</v>
       </c>
@@ -2192,7 +2208,7 @@
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="30" t="s">
+      <c r="O21" s="27" t="s">
         <v>48</v>
       </c>
       <c r="P21" s="28"/>
@@ -2221,7 +2237,7 @@
       </c>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2233,59 +2249,59 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="28"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R22" s="12"/>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T22" s="32" t="s">
+      <c r="T22" s="31" t="s">
         <v>38</v>
       </c>
       <c r="U22" s="12"/>
-      <c r="V22" s="30" t="s">
+      <c r="V22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W22" s="29" t="s">
+      <c r="W22" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X22" s="12"/>
-      <c r="Y22" s="30" t="s">
+      <c r="Y22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA22" s="32" t="s">
+      <c r="AA22" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB22" s="30" t="s">
+      <c r="AB22" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
-      <c r="AF22" s="31" t="s">
+      <c r="AF22" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="31" t="s">
+      <c r="AG22" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="31" t="s">
+      <c r="AI22" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AJ22" s="12"/>
@@ -2294,7 +2310,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="12" t="s">
         <v>49</v>
       </c>
@@ -2337,7 +2353,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="18" t="s">
         <v>50</v>
       </c>
@@ -2420,7 +2436,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="12" t="s">
         <v>51</v>
       </c>
@@ -2434,7 +2450,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N25" s="12"/>
@@ -2442,13 +2458,13 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="29" t="s">
+      <c r="S25" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="29" t="s">
+      <c r="W25" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X25" s="12"/>
@@ -2469,7 +2485,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
@@ -2481,62 +2497,62 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="L26" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M26" s="28"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="28"/>
       <c r="T26" s="12"/>
-      <c r="U26" s="32" t="s">
+      <c r="U26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="32" t="s">
+      <c r="V26" s="31" t="s">
         <v>53</v>
       </c>
       <c r="W26" s="28"/>
-      <c r="X26" s="32" t="s">
+      <c r="X26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y26" s="30" t="s">
+      <c r="Y26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z26" s="32" t="s">
+      <c r="Z26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA26" s="32" t="s">
+      <c r="AA26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB26" s="30" t="s">
+      <c r="AB26" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="31" t="s">
+      <c r="AF26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG26" s="31" t="s">
+      <c r="AG26" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="31" t="s">
+      <c r="AI26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ26" s="31" t="s">
+      <c r="AJ26" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AK26" s="12" t="s">
@@ -2544,7 +2560,7 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
@@ -2630,7 +2646,7 @@
       </c>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2639,7 +2655,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="2"/>
@@ -2648,58 +2664,58 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q29" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R29" s="2"/>
-      <c r="S29" s="29" t="s">
+      <c r="S29" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="29" t="s">
+      <c r="W29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X29" s="32" t="s">
+      <c r="X29" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y29" s="30" t="s">
+      <c r="Y29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z29" s="32" t="s">
+      <c r="Z29" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA29" s="32" t="s">
+      <c r="AA29" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="31" t="s">
+      <c r="AC29" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="31" t="s">
+      <c r="AF29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG29" s="31" t="s">
+      <c r="AG29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AH29" s="31" t="s">
+      <c r="AH29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI29" s="31" t="s">
+      <c r="AI29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ29" s="31" t="s">
+      <c r="AJ29" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AK29" s="2" t="s">
@@ -2707,7 +2723,7 @@
       </c>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
@@ -2721,17 +2737,17 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="35"/>
+      <c r="M30" s="37"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="35"/>
+      <c r="S30" s="37"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="35"/>
+      <c r="W30" s="37"/>
       <c r="X30" s="28"/>
       <c r="Y30" s="28"/>
       <c r="Z30" s="28"/>
@@ -2750,7 +2766,7 @@
       </c>
     </row>
     <row r="31" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
@@ -2759,41 +2775,41 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="31" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M31" s="28"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="27" t="s">
+      <c r="P31" s="35" t="s">
         <v>40</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="2"/>
       <c r="S31" s="28"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="30" t="s">
+      <c r="U31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="V31" s="30" t="s">
+      <c r="V31" s="27" t="s">
         <v>43</v>
       </c>
       <c r="W31" s="28"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="30" t="s">
+      <c r="Y31" s="27" t="s">
         <v>43</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="30" t="s">
+      <c r="AB31" s="27" t="s">
         <v>41</v>
       </c>
       <c r="AC31" s="2"/>
@@ -2809,7 +2825,7 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
@@ -2856,7 +2872,7 @@
       </c>
     </row>
     <row r="33" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
@@ -2870,15 +2886,15 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="34" t="s">
+      <c r="N33" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="30" t="s">
+      <c r="O33" s="27" t="s">
         <v>48</v>
       </c>
       <c r="P33" s="2"/>
@@ -2897,10 +2913,10 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
-      <c r="AF33" s="31" t="s">
+      <c r="AF33" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG33" s="31" t="s">
+      <c r="AG33" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AH33" s="2"/>
@@ -2911,7 +2927,7 @@
       </c>
     </row>
     <row r="34" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
@@ -2954,71 +2970,71 @@
       </c>
     </row>
     <row r="35" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="27" t="s">
         <v>61</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="29" t="s">
         <v>42</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L35" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="31" t="s">
+      <c r="P35" s="29" t="s">
         <v>42</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="29" t="s">
+      <c r="S35" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T35" s="2"/>
-      <c r="U35" s="32" t="s">
+      <c r="U35" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V35" s="32" t="s">
+      <c r="V35" s="31" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="2"/>
-      <c r="X35" s="32" t="s">
+      <c r="X35" s="31" t="s">
         <v>38</v>
       </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="32" t="s">
+      <c r="Z35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AA35" s="32" t="s">
+      <c r="AA35" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB35" s="32" t="s">
+      <c r="AB35" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AC35" s="31" t="s">
+      <c r="AC35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD35" s="31" t="s">
+      <c r="AD35" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="34" t="s">
+      <c r="AG35" s="33" t="s">
         <v>47</v>
       </c>
       <c r="AH35" s="2"/>
@@ -3029,7 +3045,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
@@ -3115,42 +3131,42 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="43" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="34" t="s">
+      <c r="L38" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="31" t="s">
+      <c r="O38" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="43" t="s">
+      <c r="P38" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="31" t="s">
+      <c r="Q38" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="31" t="s">
+      <c r="R38" s="29" t="s">
         <v>42</v>
       </c>
       <c r="S38" s="12"/>
@@ -3158,22 +3174,22 @@
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
-      <c r="X38" s="31" t="s">
+      <c r="X38" s="29" t="s">
         <v>42</v>
       </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
-      <c r="AC38" s="31" t="s">
+      <c r="AC38" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD38" s="31" t="s">
+      <c r="AD38" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
-      <c r="AG38" s="30" t="s">
+      <c r="AG38" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AH38" s="12"/>
@@ -3184,7 +3200,7 @@
       </c>
     </row>
     <row r="39" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="12" t="s">
         <v>44</v>
       </c>
@@ -3227,11 +3243,11 @@
       </c>
     </row>
     <row r="40" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="12"/>
@@ -3241,7 +3257,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L40" s="12"/>
@@ -3249,39 +3265,39 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="27" t="s">
+      <c r="Q40" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
-      <c r="T40" s="32" t="s">
+      <c r="T40" s="31" t="s">
         <v>38</v>
       </c>
       <c r="U40" s="12"/>
-      <c r="V40" s="30" t="s">
+      <c r="V40" s="27" t="s">
         <v>43</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
-      <c r="Y40" s="30" t="s">
+      <c r="Y40" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z40" s="32" t="s">
+      <c r="Z40" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AA40" s="32" t="s">
+      <c r="AA40" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB40" s="30" t="s">
+      <c r="AB40" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="34" t="s">
+      <c r="AE40" s="33" t="s">
         <v>47</v>
       </c>
       <c r="AF40" s="12"/>
-      <c r="AG40" s="29" t="s">
+      <c r="AG40" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AH40" s="12"/>
@@ -3292,7 +3308,7 @@
       </c>
     </row>
     <row r="41" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="12" t="s">
         <v>49</v>
       </c>
@@ -3335,85 +3351,85 @@
       </c>
     </row>
     <row r="42" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L42" s="12"/>
-      <c r="M42" s="31" t="s">
+      <c r="M42" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N42" s="30" t="s">
+      <c r="N42" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="O42" s="30" t="s">
+      <c r="O42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="P42" s="30" t="s">
+      <c r="P42" s="27" t="s">
         <v>42</v>
       </c>
       <c r="Q42" s="12"/>
-      <c r="R42" s="30" t="s">
+      <c r="R42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S42" s="30" t="s">
+      <c r="S42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="T42" s="30" t="s">
+      <c r="T42" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="30" t="s">
+      <c r="U42" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="V42" s="30" t="s">
+      <c r="V42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="W42" s="30" t="s">
+      <c r="W42" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="X42" s="32" t="s">
+      <c r="X42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y42" s="32" t="s">
+      <c r="Y42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Z42" s="32" t="s">
+      <c r="Z42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA42" s="32" t="s">
+      <c r="AA42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB42" s="32" t="s">
+      <c r="AB42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AC42" s="31" t="s">
+      <c r="AC42" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD42" s="31" t="s">
+      <c r="AD42" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AE42" s="30" t="s">
+      <c r="AE42" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AF42" s="12"/>
@@ -3426,7 +3442,7 @@
       </c>
     </row>
     <row r="43" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="12" t="s">
         <v>52</v>
       </c>
@@ -3469,11 +3485,11 @@
       </c>
     </row>
     <row r="44" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D44" s="12"/>
@@ -3483,10 +3499,10 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="33" t="s">
+      <c r="K44" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L44" s="34" t="s">
+      <c r="L44" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M44" s="12"/>
@@ -3497,31 +3513,31 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
-      <c r="U44" s="32" t="s">
+      <c r="U44" s="31" t="s">
         <v>38</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
-      <c r="X44" s="32" t="s">
+      <c r="X44" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y44" s="30" t="s">
+      <c r="Y44" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z44" s="32" t="s">
+      <c r="Z44" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA44" s="32" t="s">
+      <c r="AA44" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB44" s="32" t="s">
+      <c r="AB44" s="31" t="s">
         <v>42</v>
       </c>
       <c r="AC44" s="12"/>
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
-      <c r="AG44" s="29" t="s">
+      <c r="AG44" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AH44" s="12"/>
@@ -12130,20 +12146,259 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:AK45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="288">
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="AD42:AD43"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AG44:AG45"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="X42:X43"/>
-    <mergeCell ref="Y42:Y43"/>
-    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AF33:AF34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
     <mergeCell ref="T40:T41"/>
     <mergeCell ref="V40:V41"/>
     <mergeCell ref="U44:U45"/>
@@ -12168,260 +12423,22 @@
     <mergeCell ref="N42:N43"/>
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="P42:P43"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="AF33:AF34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="AC42:AC43"/>
+    <mergeCell ref="AD42:AD43"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AG44:AG45"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="Y42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12433,11 +12450,11 @@
   </sheetPr>
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12576,23 +12593,23 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T2" s="12"/>
@@ -12600,10 +12617,10 @@
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AA2" s="12"/>
@@ -12611,17 +12628,17 @@
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AG2" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AH2" s="12"/>
-      <c r="AI2" s="31" t="s">
+      <c r="AI2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="31" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="11" t="s">
@@ -12629,7 +12646,7 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
@@ -12642,11 +12659,11 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="33" t="s">
         <v>47</v>
       </c>
       <c r="O3" s="12"/>
@@ -12676,78 +12693,78 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="29" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="35"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T4" s="12"/>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X4" s="12"/>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="27" t="s">
         <v>43</v>
       </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="27" t="s">
         <v>42</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AF4" s="31" t="s">
+      <c r="AF4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ4" s="31" t="s">
+      <c r="AJ4" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AK4" s="11" t="s">
@@ -12755,7 +12772,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
         <v>49</v>
       </c>
@@ -12798,75 +12815,75 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="30" t="s">
+      <c r="U6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="30" t="s">
+      <c r="V6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="W6" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X6" s="12"/>
-      <c r="Y6" s="30" t="s">
+      <c r="Y6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="30" t="s">
+      <c r="AB6" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
-      <c r="AG6" s="33" t="s">
+      <c r="AG6" s="32" t="s">
         <v>46</v>
       </c>
       <c r="AH6" s="12"/>
@@ -12877,7 +12894,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
@@ -12920,64 +12937,64 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="32" t="s">
+      <c r="U8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="32" t="s">
+      <c r="V8" s="31" t="s">
         <v>38</v>
       </c>
       <c r="W8" s="12"/>
-      <c r="X8" s="32" t="s">
+      <c r="X8" s="31" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="32" t="s">
+      <c r="Z8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA8" s="32" t="s">
+      <c r="AA8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="31" t="s">
+      <c r="AC8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="31" t="s">
+      <c r="AD8" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE8" s="12"/>
@@ -12991,7 +13008,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
         <v>54</v>
       </c>
@@ -13005,7 +13022,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="12"/>
@@ -13019,7 +13036,7 @@
       <c r="V9" s="28"/>
       <c r="W9" s="12"/>
       <c r="X9" s="28"/>
-      <c r="Y9" s="30" t="s">
+      <c r="Y9" s="27" t="s">
         <v>43</v>
       </c>
       <c r="Z9" s="28"/>
@@ -13081,7 +13098,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -13095,40 +13112,40 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="35" t="s">
         <v>42</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="29" t="s">
+      <c r="W11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="30" t="s">
+      <c r="Y11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="30" t="s">
+      <c r="AB11" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC11" s="2"/>
@@ -13144,7 +13161,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
@@ -13187,67 +13204,67 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="30" t="s">
+      <c r="V13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W13" s="32" t="s">
+      <c r="W13" s="31" t="s">
         <v>38</v>
       </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="30" t="s">
+      <c r="Y13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB13" s="30" t="s">
+      <c r="AB13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC13" s="32" t="s">
+      <c r="AC13" s="31" t="s">
         <v>41</v>
       </c>
       <c r="AD13" s="2"/>
@@ -13262,7 +13279,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
@@ -13305,7 +13322,7 @@
       </c>
     </row>
     <row r="15" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
@@ -13313,47 +13330,47 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="32" t="s">
+      <c r="X15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y15" s="30" t="s">
+      <c r="Y15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA15" s="32" t="s">
+      <c r="AA15" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AB15" s="2"/>
@@ -13370,7 +13387,7 @@
       </c>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -13399,7 +13416,7 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
       <c r="AA16" s="28"/>
-      <c r="AB16" s="30" t="s">
+      <c r="AB16" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC16" s="2"/>
@@ -13415,7 +13432,7 @@
       </c>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
@@ -13432,10 +13449,10 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="27" t="s">
+      <c r="P17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R17" s="2"/>
@@ -13444,23 +13461,23 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="32" t="s">
+      <c r="X17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y17" s="32" t="s">
+      <c r="Y17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA17" s="32" t="s">
+      <c r="AA17" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AB17" s="28"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="34" t="s">
+      <c r="AF17" s="33" t="s">
         <v>47</v>
       </c>
       <c r="AG17" s="2"/>
@@ -13472,7 +13489,7 @@
       </c>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
@@ -13603,7 +13620,7 @@
       <c r="AK20" s="18"/>
     </row>
     <row r="21" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -13619,58 +13636,58 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="29" t="s">
+      <c r="S21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="29" t="s">
+      <c r="T21" s="30" t="s">
         <v>39</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="29" t="s">
+      <c r="W21" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="30" t="s">
+      <c r="Y21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="30" t="s">
+      <c r="AB21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC21" s="31" t="s">
+      <c r="AC21" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="31" t="s">
+      <c r="AF21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG21" s="31" t="s">
+      <c r="AG21" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="31" t="s">
+      <c r="AI21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ21" s="31" t="s">
+      <c r="AJ21" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AK21" s="2" t="s">
@@ -13678,7 +13695,7 @@
       </c>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
@@ -13692,17 +13709,17 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="35"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="35"/>
+      <c r="W22" s="37"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="28"/>
       <c r="Z22" s="28"/>
@@ -13721,7 +13738,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
@@ -13734,37 +13751,37 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="27" t="s">
+      <c r="P23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="30" t="s">
+      <c r="V23" s="27" t="s">
         <v>43</v>
       </c>
       <c r="W23" s="28"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="30" t="s">
+      <c r="Y23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" s="32" t="s">
+      <c r="AA23" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB23" s="30" t="s">
+      <c r="AB23" s="27" t="s">
         <v>41</v>
       </c>
       <c r="AC23" s="2"/>
@@ -13780,7 +13797,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
@@ -13825,7 +13842,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
@@ -13833,14 +13850,14 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M25" s="6" t="s">
@@ -13848,10 +13865,10 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="27" t="s">
+      <c r="P25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R25" s="2"/>
@@ -13865,22 +13882,22 @@
         <v>39</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="30" t="s">
+      <c r="Y25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z25" s="31" t="s">
+      <c r="Z25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA25" s="31" t="s">
+      <c r="AA25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AB25" s="30" t="s">
+      <c r="AB25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC25" s="31" t="s">
+      <c r="AC25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD25" s="31" t="s">
+      <c r="AD25" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE25" s="2"/>
@@ -13894,7 +13911,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
@@ -13908,7 +13925,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N26" s="2"/>
@@ -13916,7 +13933,7 @@
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="29" t="s">
+      <c r="S26" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T26" s="2"/>
@@ -13941,7 +13958,7 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
@@ -13954,41 +13971,41 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="28"/>
-      <c r="T27" s="32" t="s">
+      <c r="T27" s="31" t="s">
         <v>38</v>
       </c>
       <c r="U27" s="2"/>
-      <c r="V27" s="30" t="s">
+      <c r="V27" s="27" t="s">
         <v>43</v>
       </c>
       <c r="W27" s="2"/>
-      <c r="X27" s="32" t="s">
+      <c r="X27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y27" s="30" t="s">
+      <c r="Y27" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="32" t="s">
+      <c r="AA27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB27" s="30" t="s">
+      <c r="AB27" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC27" s="2"/>
@@ -14004,7 +14021,7 @@
       </c>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
@@ -14094,7 +14111,7 @@
       </c>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="43" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -14102,11 +14119,11 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="12"/>
@@ -14114,51 +14131,51 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N30" s="12"/>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="S30" s="29" t="s">
+      <c r="S30" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="30" t="s">
+      <c r="V30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W30" s="29" t="s">
+      <c r="W30" s="30" t="s">
         <v>39</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="30" t="s">
+      <c r="Y30" s="27" t="s">
         <v>43</v>
       </c>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-      <c r="AB30" s="30" t="s">
+      <c r="AB30" s="27" t="s">
         <v>43</v>
       </c>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
-      <c r="AF30" s="31" t="s">
+      <c r="AF30" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="31" t="s">
+      <c r="AI30" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AJ30" s="12"/>
@@ -14167,7 +14184,7 @@
       </c>
     </row>
     <row r="31" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
@@ -14179,14 +14196,14 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="33" t="s">
         <v>72</v>
       </c>
       <c r="M31" s="28"/>
-      <c r="N31" s="34" t="s">
+      <c r="N31" s="33" t="s">
         <v>72</v>
       </c>
       <c r="O31" s="28"/>
@@ -14216,65 +14233,65 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="27" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="29" t="s">
         <v>42</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="29" t="s">
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="27" t="s">
+      <c r="N32" s="37"/>
+      <c r="O32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P32" s="27" t="s">
+      <c r="P32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="27" t="s">
+      <c r="Q32" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-      <c r="T32" s="32" t="s">
+      <c r="T32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="U32" s="31" t="s">
+      <c r="U32" s="29" t="s">
         <v>42</v>
       </c>
       <c r="V32" s="12"/>
-      <c r="W32" s="29" t="s">
+      <c r="W32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="X32" s="32" t="s">
+      <c r="X32" s="31" t="s">
         <v>38</v>
       </c>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AA32" s="32" t="s">
+      <c r="AA32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB32" s="31" t="s">
+      <c r="AB32" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AC32" s="31" t="s">
+      <c r="AC32" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AD32" s="12"/>
@@ -14289,7 +14306,7 @@
       </c>
     </row>
     <row r="33" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="12" t="s">
         <v>49</v>
       </c>
@@ -14301,10 +14318,10 @@
       <c r="H33" s="12"/>
       <c r="I33" s="28"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="35"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
@@ -14332,37 +14349,37 @@
       </c>
     </row>
     <row r="34" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="27" t="s">
         <v>61</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="29" t="s">
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="35"/>
+      <c r="N34" s="37"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="27" t="s">
+      <c r="P34" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="35" t="s">
         <v>40</v>
       </c>
       <c r="R34" s="12"/>
-      <c r="S34" s="29" t="s">
+      <c r="S34" s="30" t="s">
         <v>39</v>
       </c>
       <c r="T34" s="12"/>
@@ -14375,7 +14392,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
-      <c r="AD34" s="31" t="s">
+      <c r="AD34" s="29" t="s">
         <v>42</v>
       </c>
       <c r="AE34" s="12"/>
@@ -14389,7 +14406,7 @@
       </c>
     </row>
     <row r="35" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="12" t="s">
         <v>52</v>
       </c>
@@ -14397,7 +14414,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H35" s="12"/>
@@ -14434,7 +14451,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="12" t="s">
         <v>54</v>
       </c>
@@ -14451,7 +14468,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="27" t="s">
+      <c r="P36" s="35" t="s">
         <v>40</v>
       </c>
       <c r="Q36" s="12"/>
@@ -23086,20 +23103,167 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="N31:N35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AD8:AD9"/>
     <mergeCell ref="AF17:AF18"/>
     <mergeCell ref="AF21:AF22"/>
     <mergeCell ref="AG21:AG22"/>
@@ -23124,168 +23288,21 @@
     <mergeCell ref="AC21:AC22"/>
     <mergeCell ref="W21:W23"/>
     <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
     <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="L31:L35"/>
-    <mergeCell ref="N31:N35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
